--- a/Documents/BridgGapFinCalc.xlsx
+++ b/Documents/BridgGapFinCalc.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15640" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FreshEngg" sheetId="2" r:id="rId1"/>
+    <sheet name="School" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Yr 1</t>
   </si>
@@ -109,6 +110,24 @@
   </si>
   <si>
     <t>Mentor Earnings in Mil (per year)</t>
+  </si>
+  <si>
+    <t>Num of Students per Batch</t>
+  </si>
+  <si>
+    <t>Trainer Cost</t>
+  </si>
+  <si>
+    <t>Num of Months in Academic Year</t>
+  </si>
+  <si>
+    <t>Number of Session Per Week</t>
+  </si>
+  <si>
+    <t>Num of Students per Session</t>
+  </si>
+  <si>
+    <t>Number of Session Per Week Year N</t>
   </si>
 </sst>
 </file>
@@ -118,7 +137,7 @@
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -207,10 +226,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -243,7 +270,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -286,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="37">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -301,6 +328,10 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -314,6 +345,10 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -644,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -683,7 +718,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4">
-        <f>15*52/B25</f>
+        <f>B24*52/B26</f>
         <v>130</v>
       </c>
       <c r="D2" s="4">
@@ -709,7 +744,7 @@
       </c>
       <c r="E3" s="17">
         <f>C3/C5</f>
-        <v>0.91240875912408759</v>
+        <v>0.87412587412587417</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19" customHeight="1">
@@ -717,19 +752,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="C4" s="5">
-        <f>B32*C2*B33*$B4*B34/B20</f>
-        <v>0.624</v>
+        <f>B33*C2*B34*$B4*B35/B20</f>
+        <v>0.93600000000000005</v>
       </c>
       <c r="D4" s="5">
-        <f>B32*D2*B33*$B4*B34/B20</f>
-        <v>6.24</v>
+        <f>B33*D2*B34*$B4*B35/B20</f>
+        <v>9.36</v>
       </c>
       <c r="E4" s="17">
         <f>C4/C5</f>
-        <v>8.7591240875912413E-2</v>
+        <v>0.12587412587412589</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19" customHeight="1">
@@ -739,11 +774,11 @@
       <c r="B5" s="3"/>
       <c r="C5" s="5">
         <f>SUM(C3:C4)</f>
-        <v>7.1239999999999997</v>
+        <v>7.4359999999999999</v>
       </c>
       <c r="D5" s="5">
         <f>SUM(D3:D4)</f>
-        <v>71.239999999999995</v>
+        <v>74.36</v>
       </c>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
@@ -762,20 +797,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <f>B28*(1+B29)</f>
-        <v>1065.340909090909</v>
+        <f>B29*(1+B30)</f>
+        <v>1420.4545454545455</v>
       </c>
       <c r="C7" s="6">
-        <f>B24*C2*$B7/B20</f>
-        <v>1.3849431818181817</v>
+        <f>B25*C2*$B7/B20</f>
+        <v>1.8465909090909092</v>
       </c>
       <c r="D7" s="6">
-        <f>B24*D2*$B7/B20</f>
-        <v>13.849431818181817</v>
+        <f>B25*D2*$B7/B20</f>
+        <v>18.46590909090909</v>
       </c>
       <c r="E7" s="17">
-        <f>B7*B24/B3</f>
-        <v>0.2130681818181818</v>
+        <f>C7/C5</f>
+        <v>0.24833121424030516</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19" customHeight="1">
@@ -787,11 +822,11 @@
       </c>
       <c r="C8" s="6">
         <f>(C3+C4)*$B8</f>
-        <v>1.7809999999999999</v>
+        <v>1.859</v>
       </c>
       <c r="D8" s="6">
         <f>(D3+D4)*$B8</f>
-        <v>17.809999999999999</v>
+        <v>18.59</v>
       </c>
       <c r="E8" s="7">
         <f>B8</f>
@@ -807,11 +842,11 @@
       </c>
       <c r="C9" s="6">
         <f>(C3+C4)*$B9</f>
-        <v>1.7809999999999999</v>
+        <v>1.859</v>
       </c>
       <c r="D9" s="6">
         <f>(D3+D4)*$B9</f>
-        <v>17.809999999999999</v>
+        <v>18.59</v>
       </c>
       <c r="E9" s="7">
         <f>B9</f>
@@ -826,15 +861,15 @@
       <c r="B10" s="7"/>
       <c r="C10" s="6">
         <f>SUM(C7:C9)</f>
-        <v>4.946943181818181</v>
+        <v>5.5645909090909091</v>
       </c>
       <c r="D10" s="6">
         <f>SUM(D7:D9)</f>
-        <v>49.469431818181818</v>
+        <v>55.645909090909086</v>
       </c>
       <c r="E10" s="7">
         <f>C10/C5</f>
-        <v>0.69440527538155272</v>
+        <v>0.74833121424030513</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -853,15 +888,15 @@
       <c r="B12" s="3"/>
       <c r="C12" s="8">
         <f>C5-C10</f>
-        <v>2.1770568181818186</v>
+        <v>1.8714090909090908</v>
       </c>
       <c r="D12" s="8">
         <f>D5-D10</f>
-        <v>21.770568181818177</v>
+        <v>18.714090909090913</v>
       </c>
       <c r="E12" s="7">
         <f>C12/C5</f>
-        <v>0.30559472461844733</v>
+        <v>0.25166878575969481</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -875,11 +910,11 @@
       <c r="B13" s="3"/>
       <c r="C13" s="17">
         <f>C12/C5</f>
-        <v>0.30559472461844733</v>
+        <v>0.25166878575969481</v>
       </c>
       <c r="D13" s="17">
         <f>D12/D5</f>
-        <v>0.30559472461844722</v>
+        <v>0.25166878575969492</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -896,11 +931,11 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="21">
-        <f>B30*52</f>
+        <f>B31*52</f>
         <v>416</v>
       </c>
       <c r="D15" s="21">
-        <f>B30*52</f>
+        <f>B31*52</f>
         <v>416</v>
       </c>
       <c r="E15" s="3"/>
@@ -911,11 +946,11 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="21">
-        <f>C15/B24</f>
+        <f>C15/B25</f>
         <v>41.6</v>
       </c>
       <c r="D16" s="21">
-        <f>C15/B24</f>
+        <f>C15/B25</f>
         <v>41.6</v>
       </c>
       <c r="E16" s="3"/>
@@ -942,11 +977,11 @@
       <c r="B18" s="3"/>
       <c r="C18" s="20">
         <f>C15*B7/B20</f>
-        <v>0.44318181818181812</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="D18" s="20">
         <f>C15*B7/B20</f>
-        <v>0.44318181818181812</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -968,86 +1003,408 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="10" customHeight="1"/>
-    <row r="24" spans="1:5" ht="31" customHeight="1">
+    <row r="24" spans="1:5" ht="40" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="13">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="31" customHeight="1">
       <c r="A25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B26" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="9" customHeight="1">
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" ht="33" customHeight="1">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:5" ht="9" customHeight="1">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" ht="33" customHeight="1">
+      <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="13">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" customHeight="1">
-      <c r="A28" s="11" t="s">
+      <c r="B28" s="13">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" customHeight="1">
+      <c r="A29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="14">
-        <f>(B27/(12*22*8))</f>
-        <v>710.22727272727275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="22" customHeight="1">
-      <c r="A29" s="11" t="s">
+      <c r="B29" s="14">
+        <f>(B28/(12*22*8))</f>
+        <v>946.969696969697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="22" customHeight="1">
+      <c r="A30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B30" s="15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="31" customHeight="1">
-      <c r="A30" s="11" t="s">
+    <row r="31" spans="1:5" ht="31" customHeight="1">
+      <c r="A31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B31" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="8" customHeight="1"/>
-    <row r="32" spans="1:5" ht="18" customHeight="1">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:5" ht="8" customHeight="1"/>
+    <row r="33" spans="1:2" ht="18" customHeight="1">
+      <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B33" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="19" customHeight="1">
-      <c r="A33" s="11" t="s">
+    <row r="34" spans="1:2" ht="19" customHeight="1">
+      <c r="A34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34" s="2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" customHeight="1">
-      <c r="A34" s="11" t="s">
+    <row r="35" spans="1:2" ht="18" customHeight="1">
+      <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B35" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="8" customHeight="1"/>
-    <row r="36" spans="1:2">
-      <c r="B36" s="2"/>
+    <row r="36" spans="1:2" ht="8" customHeight="1"/>
+    <row r="37" spans="1:2">
+      <c r="B37" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
+        <f>B21*B22</f>
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <f>B21*B23</f>
+        <v>1000</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="19" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="5">
+        <f>$B3*C2*B20/B16</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="5">
+        <f>$B3*D2*B20/B16</f>
+        <v>18</v>
+      </c>
+      <c r="E3" s="17">
+        <f>C3/C4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5">
+        <f>SUM(C3:C3)</f>
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="5">
+        <f>SUM(D3:D3)</f>
+        <v>18</v>
+      </c>
+      <c r="E4" s="17">
+        <f>SUM(E3:E3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="10" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="19" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="6">
+        <f>B6*4*B20*B22/B16</f>
+        <v>0.18</v>
+      </c>
+      <c r="D6" s="6">
+        <f>B6*4*B20*B23/B16</f>
+        <v>9</v>
+      </c>
+      <c r="E6" s="17">
+        <f>C6/C4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="6">
+        <f>B7*4*B20*B22/B16</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <f>B7*4*B20*B23/B16</f>
+        <v>2.7</v>
+      </c>
+      <c r="E7" s="17">
+        <f>C7/C4</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="6">
+        <f>(C3)*$B8</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <f>(D3)*$B8</f>
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="7">
+        <f>B8</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="C9" s="6">
+        <f>(C3)*$B9</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <f>(D3)*$B9</f>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="E9" s="7">
+        <f>B9</f>
+        <v>0.15</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="19" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6">
+        <f>SUM(C6:C9)</f>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D10" s="6">
+        <f>SUM(D6:D9)</f>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="E10" s="7">
+        <f>C10/C4</f>
+        <v>0.85</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="11" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="19" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="8">
+        <f>C4-C10</f>
+        <v>5.3999999999999992E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <f>D4-D10</f>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="E12" s="7">
+        <f>C12/C4</f>
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="19" customHeight="1">
+      <c r="A13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="17">
+        <f>C12/C4</f>
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="17">
+        <f>D12/D4</f>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="12" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="1:2" ht="18" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="10" customHeight="1"/>
+    <row r="20" spans="1:2" ht="34" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="40" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="31" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="33" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="8" customHeight="1"/>
+    <row r="25" spans="1:2" ht="8" customHeight="1"/>
+    <row r="26" spans="1:2">
+      <c r="B26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
